--- a/biology/Médecine/Surmatelas_thermorégulé/Surmatelas_thermorégulé.xlsx
+++ b/biology/Médecine/Surmatelas_thermorégulé/Surmatelas_thermorégulé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Surmatelas_thermor%C3%A9gul%C3%A9</t>
+          <t>Surmatelas_thermorégulé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sur-matelas thermorégulé (ou sur-matelas climatisé) est un surmatelas dont la température est commandée par une machine appelée thermocontrôleur. Placé sous les draps directement sur le matelas, il permet  au dormeur de contrôler la température de sa couche. Sa fonction est donc le contrôle de la température de l'environnement du sommeil. 
 Certains surmatelas thermorégulés sont réversibles, c'est-à-dire qu’ils peuvent à la fois chauffer et refroidir.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surmatelas_thermor%C3%A9gul%C3%A9</t>
+          <t>Surmatelas_thermorégulé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Surmatelas thermorégulé à eau - description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sur-matelas thermorégulé à eau est composé :
 d’un sur-matelas à l’intérieur duquel un réseau de fines tubulures véhicule de l’eau, qui agit en tant que vecteur thermique, et
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Surmatelas_thermor%C3%A9gul%C3%A9</t>
+          <t>Surmatelas_thermorégulé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Utilisations principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contrôle thermique de l’environnement de sommeil a de nombreuses applications. 
 Le froid a un effet antalgique (sprays réfrigérants) et un effet anti-inflammatoire, il diminue les désagréments en cas de : 
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Surmatelas_thermor%C3%A9gul%C3%A9</t>
+          <t>Surmatelas_thermorégulé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Intérêts comparatifs par rapport aux autres solutions de régulation thermique du dormeur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les surmatelas thermorégulés (ou surmatelas climatisés) procède d’une nette avancée thérapeutique car ils présentent conjointement les avantages d’apporter une solution: 
 non médicamenteuse,
